--- a/Improgress/2. Artifact and Deliverable/Test case/module1/K22T1_TeamBDS_ TC_Xoachinhsachcongty_ver1.0.xlsx
+++ b/Improgress/2. Artifact and Deliverable/Test case/module1/K22T1_TeamBDS_ TC_Xoachinhsachcongty_ver1.0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\Capstone-Project\Improgress\2. Artifact and Deliverable\Test case\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\Capstone-Project\Improgress\2. Artifact and Deliverable\Test case\module1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDB7F396-1D6D-4449-B548-8C2E3F24CE71}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66F8AE44-3E1F-40A3-BEAA-FF52216A58CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{DC4DB269-603C-4B5B-A498-B166C8A18B92}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{DC4DB269-603C-4B5B-A498-B166C8A18B92}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Page" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Test Cases" sheetId="5" r:id="rId4"/>
     <sheet name="Sheet2" sheetId="7" state="hidden" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="94">
   <si>
     <t>Author</t>
   </si>
@@ -218,9 +218,6 @@
     <t>1.2</t>
   </si>
   <si>
-    <t>Fix some defects in TCs</t>
-  </si>
-  <si>
     <t xml:space="preserve">Trịnh Như Phương </t>
   </si>
   <si>
@@ -339,6 +336,15 @@
   </si>
   <si>
     <t xml:space="preserve">Xóa chính sach công ty </t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>complete version</t>
   </si>
 </sst>
 </file>
@@ -491,7 +497,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="39">
+  <borders count="40">
     <border>
       <left/>
       <right/>
@@ -979,11 +985,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1113,6 +1132,33 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1134,30 +1180,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -1230,6 +1252,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1251,22 +1276,25 @@
     <xf numFmtId="0" fontId="15" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1592,8 +1620,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B1:E20"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1608,31 +1636,31 @@
   <sheetData>
     <row r="1" spans="2:5" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
     </row>
     <row r="3" spans="2:5" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="59" t="s">
-        <v>58</v>
-      </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
+      <c r="B3" s="53" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
     </row>
     <row r="4" spans="2:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="7"/>
     </row>
     <row r="5" spans="2:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="53" t="s">
+      <c r="B5" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="55"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="49"/>
     </row>
     <row r="6" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="20" t="s">
@@ -1653,10 +1681,10 @@
         <v>11</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>25</v>
@@ -1666,9 +1694,11 @@
       <c r="B8" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="12"/>
+      <c r="C8" s="12">
+        <v>43985</v>
+      </c>
       <c r="D8" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>27</v>
@@ -1678,9 +1708,11 @@
       <c r="B9" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="12"/>
+      <c r="C9" s="12">
+        <v>43922</v>
+      </c>
       <c r="D9" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>44</v>
@@ -1690,12 +1722,14 @@
       <c r="B10" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="12"/>
+      <c r="C10" s="12">
+        <v>43866</v>
+      </c>
       <c r="D10" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>52</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1705,21 +1739,21 @@
       <c r="E11" s="8"/>
     </row>
     <row r="12" spans="2:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="56" t="s">
+      <c r="B12" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="57"/>
-      <c r="D12" s="57"/>
-      <c r="E12" s="58"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="52"/>
     </row>
     <row r="13" spans="2:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="53" t="s">
+      <c r="B14" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="54"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="55"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="49"/>
     </row>
     <row r="15" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="20" t="s">
@@ -1728,54 +1762,54 @@
       <c r="C15" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="48" t="s">
+      <c r="D15" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="49"/>
+      <c r="E15" s="58"/>
     </row>
     <row r="16" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="9"/>
       <c r="C16" s="12"/>
-      <c r="D16" s="50"/>
-      <c r="E16" s="51"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="60"/>
     </row>
     <row r="17" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="11"/>
       <c r="C17" s="12"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="51"/>
+      <c r="D17" s="59"/>
+      <c r="E17" s="60"/>
     </row>
     <row r="18" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="11"/>
       <c r="C18" s="12"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="51"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="60"/>
     </row>
     <row r="19" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="11"/>
       <c r="C19" s="12"/>
-      <c r="D19" s="50"/>
-      <c r="E19" s="51"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="60"/>
     </row>
     <row r="20" spans="2:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="45"/>
-      <c r="C20" s="46"/>
-      <c r="D20" s="46"/>
-      <c r="E20" s="47"/>
+      <c r="B20" s="54"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B14:E14"/>
     <mergeCell ref="B20:E20"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B14:E14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1802,8 +1836,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1820,80 +1854,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="70" t="s">
-        <v>57</v>
-      </c>
-      <c r="D2" s="71"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="71" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="72"/>
       <c r="E2" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="70" t="s">
-        <v>91</v>
-      </c>
-      <c r="G2" s="72"/>
-      <c r="H2" s="73"/>
+      <c r="F2" s="71" t="s">
+        <v>90</v>
+      </c>
+      <c r="G2" s="73"/>
+      <c r="H2" s="74"/>
     </row>
     <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="74" t="s">
+      <c r="A3" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="75"/>
-      <c r="C3" s="76" t="s">
-        <v>53</v>
-      </c>
-      <c r="D3" s="77"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="77" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="78"/>
       <c r="E3" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="76"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="79"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="80"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="61"/>
-      <c r="C4" s="62" t="s">
-        <v>65</v>
-      </c>
-      <c r="D4" s="63"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="63" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="64"/>
       <c r="E4" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="62" t="s">
+      <c r="F4" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="64"/>
-      <c r="H4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="66"/>
     </row>
     <row r="7" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="66" t="s">
+      <c r="A7" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="66"/>
-      <c r="C7" s="66"/>
-      <c r="D7" s="66"/>
-      <c r="E7" s="66"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="66"/>
-      <c r="H7" s="66"/>
+      <c r="B7" s="67"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="67"/>
+      <c r="H7" s="67"/>
     </row>
     <row r="8" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="23" t="s">
@@ -1926,11 +1960,11 @@
         <v>1</v>
       </c>
       <c r="B9" s="37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C9" s="34"/>
       <c r="D9" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E9" s="32" t="s">
         <v>36</v>
@@ -1946,11 +1980,11 @@
         <v>2</v>
       </c>
       <c r="B10" s="37" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C10" s="34"/>
       <c r="D10" s="16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E10" s="32" t="s">
         <v>36</v>
@@ -1966,13 +2000,13 @@
         <v>7</v>
       </c>
       <c r="B11" s="37" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C11" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="95" t="s">
-        <v>68</v>
+      <c r="D11" s="45" t="s">
+        <v>67</v>
       </c>
       <c r="E11" s="32" t="s">
         <v>35</v>
@@ -1988,13 +2022,13 @@
         <v>8</v>
       </c>
       <c r="B12" s="37" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C12" s="34" t="s">
         <v>45</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E12" s="32"/>
       <c r="F12" s="40"/>
@@ -2048,11 +2082,11 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2348A1D5-4253-4771-A133-25F9BE04457B}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:I1"/>
+      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2069,26 +2103,26 @@
     <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="91" t="s">
-        <v>90</v>
-      </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
-    </row>
-    <row r="2" spans="1:9" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="96" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+    </row>
+    <row r="2" spans="1:10" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" s="4"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="23" t="s">
         <v>2</v>
       </c>
@@ -2114,376 +2148,392 @@
       <c r="I3" s="24" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="90" t="s">
-        <v>63</v>
-      </c>
-      <c r="B4" s="90"/>
-      <c r="C4" s="90"/>
-      <c r="D4" s="90"/>
-      <c r="E4" s="90"/>
-      <c r="F4" s="90"/>
-      <c r="G4" s="90"/>
-      <c r="H4" s="90"/>
-      <c r="I4" s="90"/>
-    </row>
-    <row r="5" spans="1:9" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="80">
+      <c r="J3" s="24" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="92" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="92"/>
+      <c r="C4" s="92"/>
+      <c r="D4" s="92"/>
+      <c r="E4" s="92"/>
+      <c r="F4" s="92"/>
+      <c r="G4" s="92"/>
+      <c r="H4" s="92"/>
+      <c r="I4" s="92"/>
+    </row>
+    <row r="5" spans="1:10" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="81">
         <v>1</v>
       </c>
-      <c r="B5" s="82" t="s">
-        <v>71</v>
-      </c>
-      <c r="C5" s="84" t="s">
-        <v>79</v>
-      </c>
-      <c r="D5" s="86" t="s">
+      <c r="B5" s="83" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="86" t="s">
         <v>78</v>
       </c>
-      <c r="E5" s="88" t="s">
-        <v>62</v>
+      <c r="D5" s="88" t="s">
+        <v>77</v>
+      </c>
+      <c r="E5" s="90" t="s">
+        <v>61</v>
       </c>
       <c r="F5" s="44">
         <v>1</v>
       </c>
       <c r="G5" s="41" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H5" s="38"/>
       <c r="I5" s="38" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" s="39" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="81"/>
-      <c r="B6" s="83"/>
-      <c r="C6" s="85"/>
-      <c r="D6" s="87"/>
-      <c r="E6" s="89"/>
+        <v>54</v>
+      </c>
+      <c r="J5" s="97" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="39" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="82"/>
+      <c r="B6" s="84"/>
+      <c r="C6" s="87"/>
+      <c r="D6" s="89"/>
+      <c r="E6" s="91"/>
       <c r="F6" s="44">
         <v>2</v>
       </c>
       <c r="G6" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H6" s="40"/>
       <c r="I6" s="40" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="81"/>
-      <c r="B7" s="83"/>
-      <c r="C7" s="85"/>
-      <c r="D7" s="87"/>
-      <c r="E7" s="89"/>
+        <v>55</v>
+      </c>
+      <c r="J6" s="98"/>
+    </row>
+    <row r="7" spans="1:10" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="82"/>
+      <c r="B7" s="84"/>
+      <c r="C7" s="87"/>
+      <c r="D7" s="89"/>
+      <c r="E7" s="91"/>
       <c r="F7" s="44">
         <v>3</v>
       </c>
       <c r="G7" s="42" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H7" s="40"/>
       <c r="I7" s="40" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" s="43" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="81"/>
-      <c r="B8" s="83"/>
-      <c r="C8" s="85"/>
-      <c r="D8" s="87"/>
-      <c r="E8" s="89"/>
+        <v>65</v>
+      </c>
+      <c r="J7" s="98"/>
+    </row>
+    <row r="8" spans="1:10" s="43" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="82"/>
+      <c r="B8" s="84"/>
+      <c r="C8" s="87"/>
+      <c r="D8" s="89"/>
+      <c r="E8" s="91"/>
       <c r="F8" s="44">
         <v>4</v>
       </c>
       <c r="G8" s="42" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H8" s="40"/>
       <c r="I8" s="40" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" s="43" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="81"/>
-      <c r="B9" s="83"/>
-      <c r="C9" s="85"/>
-      <c r="D9" s="87"/>
-      <c r="E9" s="89"/>
+        <v>75</v>
+      </c>
+      <c r="J8" s="98"/>
+    </row>
+    <row r="9" spans="1:10" s="43" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="82"/>
+      <c r="B9" s="84"/>
+      <c r="C9" s="87"/>
+      <c r="D9" s="89"/>
+      <c r="E9" s="91"/>
       <c r="F9" s="44">
         <v>5</v>
       </c>
       <c r="G9" s="42" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H9" s="40"/>
       <c r="I9" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="J9" s="99"/>
+    </row>
+    <row r="10" spans="1:10" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="81">
+        <v>2</v>
+      </c>
+      <c r="B10" s="83" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="86" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="80">
-        <v>2</v>
-      </c>
-      <c r="B10" s="82" t="s">
-        <v>71</v>
-      </c>
-      <c r="C10" s="84" t="s">
-        <v>81</v>
-      </c>
-      <c r="D10" s="86" t="s">
-        <v>83</v>
-      </c>
-      <c r="E10" s="88" t="s">
-        <v>62</v>
+      <c r="D10" s="88" t="s">
+        <v>82</v>
+      </c>
+      <c r="E10" s="90" t="s">
+        <v>61</v>
       </c>
       <c r="F10" s="44">
         <v>1</v>
       </c>
       <c r="G10" s="41" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H10" s="38"/>
       <c r="I10" s="38" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" s="39" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="81"/>
-      <c r="B11" s="83"/>
-      <c r="C11" s="85"/>
-      <c r="D11" s="87"/>
-      <c r="E11" s="89"/>
+        <v>54</v>
+      </c>
+      <c r="J10" s="97" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="39" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="82"/>
+      <c r="B11" s="84"/>
+      <c r="C11" s="87"/>
+      <c r="D11" s="89"/>
+      <c r="E11" s="91"/>
       <c r="F11" s="44">
         <v>2</v>
       </c>
       <c r="G11" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H11" s="40"/>
       <c r="I11" s="40" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="81"/>
-      <c r="B12" s="83"/>
-      <c r="C12" s="85"/>
-      <c r="D12" s="87"/>
-      <c r="E12" s="89"/>
+        <v>55</v>
+      </c>
+      <c r="J11" s="98"/>
+    </row>
+    <row r="12" spans="1:10" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="82"/>
+      <c r="B12" s="84"/>
+      <c r="C12" s="87"/>
+      <c r="D12" s="89"/>
+      <c r="E12" s="91"/>
       <c r="F12" s="44">
         <v>3</v>
       </c>
       <c r="G12" s="42" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H12" s="40"/>
       <c r="I12" s="40" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" s="43" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="81"/>
-      <c r="B13" s="83"/>
-      <c r="C13" s="85"/>
-      <c r="D13" s="87"/>
-      <c r="E13" s="89"/>
+        <v>65</v>
+      </c>
+      <c r="J12" s="98"/>
+    </row>
+    <row r="13" spans="1:10" s="43" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="82"/>
+      <c r="B13" s="84"/>
+      <c r="C13" s="87"/>
+      <c r="D13" s="89"/>
+      <c r="E13" s="91"/>
       <c r="F13" s="44">
         <v>4</v>
       </c>
       <c r="G13" s="42" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H13" s="40"/>
       <c r="I13" s="40" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" s="43" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="81"/>
-      <c r="B14" s="93"/>
-      <c r="C14" s="85"/>
-      <c r="D14" s="87"/>
-      <c r="E14" s="89"/>
+        <v>75</v>
+      </c>
+      <c r="J13" s="98"/>
+    </row>
+    <row r="14" spans="1:10" s="43" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="82"/>
+      <c r="B14" s="85"/>
+      <c r="C14" s="87"/>
+      <c r="D14" s="89"/>
+      <c r="E14" s="91"/>
       <c r="F14" s="44">
         <v>5</v>
       </c>
       <c r="G14" s="42" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H14" s="40"/>
       <c r="I14" s="40" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="90" t="s">
-        <v>64</v>
-      </c>
-      <c r="B15" s="90"/>
-      <c r="C15" s="90"/>
-      <c r="D15" s="90"/>
-      <c r="E15" s="90"/>
-      <c r="F15" s="90"/>
-      <c r="G15" s="90"/>
-      <c r="H15" s="90"/>
-      <c r="I15" s="90"/>
-    </row>
-    <row r="16" spans="1:9" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="80">
+        <v>84</v>
+      </c>
+      <c r="J14" s="99"/>
+    </row>
+    <row r="15" spans="1:10" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="92" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" s="92"/>
+      <c r="C15" s="92"/>
+      <c r="D15" s="92"/>
+      <c r="E15" s="92"/>
+      <c r="F15" s="92"/>
+      <c r="G15" s="92"/>
+      <c r="H15" s="92"/>
+      <c r="I15" s="92"/>
+    </row>
+    <row r="16" spans="1:10" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="81">
         <v>3</v>
       </c>
-      <c r="B16" s="82" t="s">
-        <v>73</v>
-      </c>
-      <c r="C16" s="84" t="s">
-        <v>73</v>
-      </c>
-      <c r="D16" s="86" t="s">
-        <v>68</v>
-      </c>
-      <c r="E16" s="86"/>
+      <c r="B16" s="83" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" s="86" t="s">
+        <v>72</v>
+      </c>
+      <c r="D16" s="88" t="s">
+        <v>67</v>
+      </c>
+      <c r="E16" s="88"/>
       <c r="F16" s="44">
         <v>1</v>
       </c>
       <c r="G16" s="41" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H16" s="38"/>
       <c r="I16" s="38" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" s="39" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="81"/>
-      <c r="B17" s="83"/>
-      <c r="C17" s="85"/>
-      <c r="D17" s="87"/>
-      <c r="E17" s="87"/>
+        <v>54</v>
+      </c>
+      <c r="J16" s="97" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" s="39" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="82"/>
+      <c r="B17" s="84"/>
+      <c r="C17" s="87"/>
+      <c r="D17" s="89"/>
+      <c r="E17" s="89"/>
       <c r="F17" s="44">
         <v>2</v>
       </c>
       <c r="G17" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H17" s="40"/>
       <c r="I17" s="40" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="81"/>
-      <c r="B18" s="83"/>
-      <c r="C18" s="85"/>
-      <c r="D18" s="87"/>
-      <c r="E18" s="87"/>
+        <v>55</v>
+      </c>
+      <c r="J17" s="98"/>
+    </row>
+    <row r="18" spans="1:10" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="82"/>
+      <c r="B18" s="84"/>
+      <c r="C18" s="87"/>
+      <c r="D18" s="89"/>
+      <c r="E18" s="89"/>
       <c r="F18" s="44">
         <v>3</v>
       </c>
       <c r="G18" s="42" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H18" s="40"/>
       <c r="I18" s="40" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" s="43" customFormat="1" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="81"/>
-      <c r="B19" s="83"/>
-      <c r="C19" s="85"/>
-      <c r="D19" s="87"/>
-      <c r="E19" s="87"/>
+        <v>66</v>
+      </c>
+      <c r="J18" s="98"/>
+    </row>
+    <row r="19" spans="1:10" s="43" customFormat="1" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="82"/>
+      <c r="B19" s="84"/>
+      <c r="C19" s="87"/>
+      <c r="D19" s="89"/>
+      <c r="E19" s="89"/>
       <c r="F19" s="44">
         <v>4</v>
       </c>
       <c r="G19" s="42" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H19" s="40"/>
       <c r="I19" s="40" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="80">
+        <v>75</v>
+      </c>
+      <c r="J19" s="99"/>
+    </row>
+    <row r="20" spans="1:10" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="81">
         <v>4</v>
       </c>
-      <c r="B20" s="82" t="s">
-        <v>89</v>
-      </c>
-      <c r="C20" s="84" t="s">
-        <v>74</v>
-      </c>
-      <c r="D20" s="86" t="s">
-        <v>87</v>
-      </c>
-      <c r="E20" s="86"/>
+      <c r="B20" s="83" t="s">
+        <v>88</v>
+      </c>
+      <c r="C20" s="86" t="s">
+        <v>73</v>
+      </c>
+      <c r="D20" s="88" t="s">
+        <v>86</v>
+      </c>
+      <c r="E20" s="88"/>
       <c r="F20" s="44">
         <v>1</v>
       </c>
       <c r="G20" s="41" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H20" s="38"/>
       <c r="I20" s="38" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" s="39" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="81"/>
-      <c r="B21" s="83"/>
-      <c r="C21" s="85"/>
-      <c r="D21" s="87"/>
-      <c r="E21" s="87"/>
+        <v>54</v>
+      </c>
+      <c r="J20" s="97" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" s="39" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="82"/>
+      <c r="B21" s="84"/>
+      <c r="C21" s="87"/>
+      <c r="D21" s="89"/>
+      <c r="E21" s="89"/>
       <c r="F21" s="44">
         <v>2</v>
       </c>
       <c r="G21" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H21" s="40"/>
       <c r="I21" s="40" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" s="43" customFormat="1" ht="110.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="96"/>
-      <c r="B22" s="93"/>
-      <c r="C22" s="92"/>
-      <c r="D22" s="94"/>
-      <c r="E22" s="94"/>
+        <v>55</v>
+      </c>
+      <c r="J21" s="98"/>
+    </row>
+    <row r="22" spans="1:10" s="43" customFormat="1" ht="110.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="93"/>
+      <c r="B22" s="85"/>
+      <c r="C22" s="94"/>
+      <c r="D22" s="95"/>
+      <c r="E22" s="95"/>
       <c r="F22" s="44">
         <v>3</v>
       </c>
       <c r="G22" s="42" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H22" s="40"/>
       <c r="I22" s="40" t="s">
-        <v>88</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="J22" s="99"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="A10:A14"/>
-    <mergeCell ref="B10:B14"/>
-    <mergeCell ref="C10:C14"/>
-    <mergeCell ref="D10:D14"/>
-    <mergeCell ref="E10:E14"/>
-    <mergeCell ref="A15:I15"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="D16:D19"/>
-    <mergeCell ref="E16:E19"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="E20:E22"/>
+  <mergeCells count="27">
+    <mergeCell ref="J5:J9"/>
+    <mergeCell ref="J10:J14"/>
+    <mergeCell ref="J16:J19"/>
+    <mergeCell ref="J20:J22"/>
     <mergeCell ref="A4:I4"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="B5:B9"/>
@@ -2491,6 +2541,22 @@
     <mergeCell ref="C5:C9"/>
     <mergeCell ref="D5:D9"/>
     <mergeCell ref="E5:E9"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="E20:E22"/>
+    <mergeCell ref="A15:I15"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="E16:E19"/>
+    <mergeCell ref="A10:A14"/>
+    <mergeCell ref="B10:B14"/>
+    <mergeCell ref="C10:C14"/>
+    <mergeCell ref="D10:D14"/>
+    <mergeCell ref="E10:E14"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
